--- a/Fundamentals of Computer Graphics/进度.xlsx
+++ b/Fundamentals of Computer Graphics/进度.xlsx
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -385,518 +385,429 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44259</v>
+        <v>44272</v>
       </c>
       <c r="B2" s="1">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1">
-        <v>60</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44260</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>44273</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24</v>
+      </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44261</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>44274</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44262</v>
+        <v>44275</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44263</v>
+        <v>44276</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44264</v>
+        <v>44277</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44265</v>
+        <v>44278</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44266</v>
+        <v>44279</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44267</v>
+        <v>44280</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44268</v>
+        <v>44281</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44269</v>
+        <v>44282</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44270</v>
+        <v>44283</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44271</v>
+        <v>44284</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44272</v>
+        <v>44285</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44273</v>
+        <v>44286</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44274</v>
+        <v>44287</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44275</v>
+        <v>44288</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44276</v>
+        <v>44289</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44277</v>
+        <v>44290</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44278</v>
+        <v>44291</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44279</v>
+        <v>44292</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44280</v>
+        <v>44293</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44281</v>
+        <v>44294</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44282</v>
+        <v>44295</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44283</v>
+        <v>44296</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44284</v>
+        <v>44297</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44285</v>
+        <v>44298</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>44286</v>
+        <v>44299</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>44287</v>
+        <v>44300</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44288</v>
+        <v>44301</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44289</v>
+        <v>44302</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>44290</v>
+        <v>44303</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44291</v>
+        <v>44304</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>44293</v>
+        <v>44306</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44294</v>
+        <v>44307</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>44295</v>
+        <v>44308</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44296</v>
+        <v>44309</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44297</v>
+        <v>44310</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44298</v>
+        <v>44311</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44299</v>
+        <v>44312</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44300</v>
+        <v>44313</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44302</v>
+        <v>44315</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44303</v>
+        <v>44316</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44304</v>
+        <v>44317</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44305</v>
+        <v>44318</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>44306</v>
+        <v>44319</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44307</v>
+        <v>44320</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>44310</v>
+        <v>44323</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>44311</v>
+        <v>44324</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>44312</v>
+        <v>44325</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>44313</v>
+        <v>44326</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>44314</v>
+        <v>44327</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>44315</v>
+        <v>44328</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>44316</v>
+        <v>44329</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>44317</v>
+        <v>44330</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>44318</v>
+        <v>44331</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>44319</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>44320</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>44321</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>44322</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>44323</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>44324</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>44325</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>44326</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>44327</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>44328</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>44329</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>44330</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>44331</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
